--- a/notes/arboretumFieldwork/SectionCLivingCollectionAccessed.xlsx
+++ b/notes/arboretumFieldwork/SectionCLivingCollectionAccessed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe_rouleau-desrochers/github/coringtreespotters/notes/arboretumFieldwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0306F2F7-F858-404C-8DAC-E1F60D42BC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72546A8A-0C51-6243-9B69-B6C29A9601A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" xr2:uid="{AC09A536-D506-724A-9955-1211985C3AA7}"/>
   </bookViews>
@@ -36,21 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="135">
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Accession nujmber and qualifier</t>
-  </si>
-  <si>
-    <t>Description of use/access</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="131">
   <si>
     <t>Quantity collected</t>
-  </si>
-  <si>
-    <t>Additional notes/Observations</t>
   </si>
   <si>
     <t>12651*C</t>
@@ -997,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D611B28F-3D60-C44C-9C5D-C7ABB6419792}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="177" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="177" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,7 +1002,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1023,695 +1011,692 @@
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E33" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1719,94 +1704,80 @@
         <v>38</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D54">
-    <sortCondition ref="A5:A54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D53">
+    <sortCondition ref="A4:A53"/>
   </sortState>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
